--- a/config_11.17/shoping_config_cjj.xlsx
+++ b/config_11.17/shoping_config_cjj.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1741">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6945,6 +6945,576 @@
   </si>
   <si>
     <t>800000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙腾飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一20元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-1</t>
+  </si>
+  <si>
+    <t>聚划算8元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","2.4万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>824000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-2</t>
+  </si>
+  <si>
+    <t>聚划算8元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币",</t>
+  </si>
+  <si>
+    <t>848000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算8元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"80万金币","4.8万金币","0.8万",</t>
+  </si>
+  <si>
+    <t>856000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-1</t>
+  </si>
+  <si>
+    <t>聚划算38元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","11万金币",</t>
+  </si>
+  <si>
+    <t>3910000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-2</t>
+  </si>
+  <si>
+    <t>聚划算38元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币",</t>
+  </si>
+  <si>
+    <t>4028000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"380万金币","22.8万金币","3.8万",</t>
+  </si>
+  <si>
+    <t>4066000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-1</t>
+  </si>
+  <si>
+    <t>聚划算98元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","29万金币",</t>
+  </si>
+  <si>
+    <t>10090000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-2</t>
+  </si>
+  <si>
+    <t>聚划算98元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币",</t>
+  </si>
+  <si>
+    <t>10388000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算98元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","58.8万金币","9.8万",</t>
+  </si>
+  <si>
+    <t>10478000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-1</t>
+  </si>
+  <si>
+    <t>聚划算198元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","59万金币",</t>
+  </si>
+  <si>
+    <t>20390000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-2</t>
+  </si>
+  <si>
+    <t>聚划算198元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币",</t>
+  </si>
+  <si>
+    <t>20988000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算198元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","118.8万金币","19.8万",</t>
+  </si>
+  <si>
+    <t>21186000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-1</t>
+  </si>
+  <si>
+    <t>聚划算498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","149万金币",</t>
+  </si>
+  <si>
+    <t>51290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-2</t>
+  </si>
+  <si>
+    <t>聚划算498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币",</t>
+  </si>
+  <si>
+    <t>52788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","298.8万金币","49.8万",</t>
+  </si>
+  <si>
+    <t>53286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-1</t>
+  </si>
+  <si>
+    <t>聚划算998元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","299万金币",</t>
+  </si>
+  <si>
+    <t>102790000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-2</t>
+  </si>
+  <si>
+    <t>聚划算998元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币",</t>
+  </si>
+  <si>
+    <t>105788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算998元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算998元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","598.8万金币","99.8万",</t>
+  </si>
+  <si>
+    <t>106786000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-1</t>
+  </si>
+  <si>
+    <t>聚划算2498元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","749万金币",</t>
+  </si>
+  <si>
+    <t>257290000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-2</t>
+  </si>
+  <si>
+    <t>聚划算2498元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币",</t>
+  </si>
+  <si>
+    <t>264788000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算2498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算2498元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24980万金币","1498.8万金币","249.8万",</t>
+  </si>
+  <si>
+    <t>267286000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一本万利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂金礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
+  </si>
+  <si>
+    <t>钻石礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>星耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.4亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10363,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10368,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10366,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10371,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10369,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10374,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10372,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10377,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10375,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10380,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10378,reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10383,trigger="start_trigger",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{last=10381,reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7016,7 +7586,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7101,6 +7671,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7144,7 +7732,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7351,6 +7939,39 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9795,13 +10416,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM433"/>
+  <dimension ref="A1:AM475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q401" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="V374" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A415" sqref="A415:XFD433"/>
+      <selection pane="bottomRight" activeCell="Z392" sqref="Z392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -34144,615 +34765,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="5">
+    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="19">
         <v>385</v>
       </c>
-      <c r="B386" s="5">
+      <c r="B386" s="19">
         <v>10302</v>
       </c>
-      <c r="F386" s="5">
-        <v>1</v>
-      </c>
-      <c r="G386" s="5" t="s">
+      <c r="F386" s="19">
+        <v>1</v>
+      </c>
+      <c r="G386" s="19" t="s">
         <v>1383</v>
       </c>
-      <c r="H386" s="5" t="s">
+      <c r="H386" s="19" t="s">
         <v>1387</v>
       </c>
-      <c r="I386" s="5" t="s">
+      <c r="I386" s="19" t="s">
         <v>1390</v>
       </c>
-      <c r="K386" s="5">
+      <c r="K386" s="19">
         <v>-31</v>
       </c>
-      <c r="L386" s="5">
-        <v>0</v>
-      </c>
-      <c r="M386" s="5">
-        <v>0</v>
-      </c>
-      <c r="N386" s="5" t="s">
+      <c r="L386" s="19">
+        <v>0</v>
+      </c>
+      <c r="M386" s="19">
+        <v>0</v>
+      </c>
+      <c r="N386" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O386" s="5">
+      <c r="O386" s="19">
         <v>1800</v>
       </c>
-      <c r="P386" s="5" t="s">
+      <c r="P386" s="19" t="s">
         <v>1400</v>
       </c>
-      <c r="Q386" s="10" t="s">
+      <c r="Q386" s="40" t="s">
         <v>1409</v>
       </c>
-      <c r="V386" s="5" t="s">
+      <c r="V386" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W386" s="5">
+      <c r="W386" s="19">
         <v>9999999</v>
       </c>
-      <c r="X386" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y386" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z386" s="5">
+      <c r="X386" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y386" s="61">
+        <v>1606147199</v>
+      </c>
+      <c r="Z386" s="19">
         <v>44</v>
       </c>
-      <c r="AG386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK386" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="5">
+      <c r="AG386" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH386" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK386" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="19">
         <v>386</v>
       </c>
-      <c r="B387" s="5">
+      <c r="B387" s="19">
         <v>10303</v>
       </c>
-      <c r="F387" s="5">
-        <v>1</v>
-      </c>
-      <c r="G387" s="5" t="s">
+      <c r="F387" s="19">
+        <v>1</v>
+      </c>
+      <c r="G387" s="19" t="s">
         <v>1384</v>
       </c>
-      <c r="H387" s="5" t="s">
+      <c r="H387" s="19" t="s">
         <v>1387</v>
       </c>
-      <c r="I387" s="5" t="s">
+      <c r="I387" s="19" t="s">
         <v>1391</v>
       </c>
-      <c r="K387" s="5">
+      <c r="K387" s="19">
         <v>-31</v>
       </c>
-      <c r="L387" s="5">
-        <v>0</v>
-      </c>
-      <c r="M387" s="5">
-        <v>0</v>
-      </c>
-      <c r="N387" s="5" t="s">
+      <c r="L387" s="19">
+        <v>0</v>
+      </c>
+      <c r="M387" s="19">
+        <v>0</v>
+      </c>
+      <c r="N387" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O387" s="5">
+      <c r="O387" s="19">
         <v>3000</v>
       </c>
-      <c r="P387" s="5" t="s">
+      <c r="P387" s="19" t="s">
         <v>1402</v>
       </c>
-      <c r="Q387" s="10" t="s">
+      <c r="Q387" s="40" t="s">
         <v>1410</v>
       </c>
-      <c r="V387" s="5" t="s">
+      <c r="V387" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W387" s="5">
+      <c r="W387" s="19">
         <v>9999999</v>
       </c>
-      <c r="X387" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y387" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z387" s="5">
+      <c r="X387" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y387" s="61">
+        <v>1606147199</v>
+      </c>
+      <c r="Z387" s="19">
         <v>44</v>
       </c>
-      <c r="AG387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK387" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="5">
+      <c r="AG387" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH387" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK387" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="19">
         <v>387</v>
       </c>
-      <c r="B388" s="5">
+      <c r="B388" s="19">
         <v>10304</v>
       </c>
-      <c r="F388" s="5">
-        <v>1</v>
-      </c>
-      <c r="G388" s="5" t="s">
+      <c r="F388" s="19">
+        <v>1</v>
+      </c>
+      <c r="G388" s="19" t="s">
         <v>1385</v>
       </c>
-      <c r="H388" s="5" t="s">
+      <c r="H388" s="19" t="s">
         <v>1387</v>
       </c>
-      <c r="I388" s="5" t="s">
+      <c r="I388" s="19" t="s">
         <v>1392</v>
       </c>
-      <c r="K388" s="5">
+      <c r="K388" s="19">
         <v>-31</v>
       </c>
-      <c r="L388" s="5">
-        <v>0</v>
-      </c>
-      <c r="M388" s="5">
-        <v>0</v>
-      </c>
-      <c r="N388" s="5" t="s">
+      <c r="L388" s="19">
+        <v>0</v>
+      </c>
+      <c r="M388" s="19">
+        <v>0</v>
+      </c>
+      <c r="N388" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O388" s="5">
+      <c r="O388" s="19">
         <v>4800</v>
       </c>
-      <c r="P388" s="5" t="s">
+      <c r="P388" s="19" t="s">
         <v>1403</v>
       </c>
-      <c r="Q388" s="10" t="s">
+      <c r="Q388" s="40" t="s">
         <v>1411</v>
       </c>
-      <c r="V388" s="5" t="s">
+      <c r="V388" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W388" s="5">
+      <c r="W388" s="19">
         <v>9999999</v>
       </c>
-      <c r="X388" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y388" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z388" s="5">
+      <c r="X388" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y388" s="61">
+        <v>1606147199</v>
+      </c>
+      <c r="Z388" s="19">
         <v>44</v>
       </c>
-      <c r="AG388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK388" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="5">
+      <c r="AG388" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH388" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK388" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="19">
         <v>388</v>
       </c>
-      <c r="B389" s="5">
+      <c r="B389" s="19">
         <v>10305</v>
       </c>
-      <c r="F389" s="5">
-        <v>1</v>
-      </c>
-      <c r="G389" s="5" t="s">
+      <c r="F389" s="19">
+        <v>1</v>
+      </c>
+      <c r="G389" s="19" t="s">
         <v>1383</v>
       </c>
-      <c r="H389" s="5" t="s">
+      <c r="H389" s="19" t="s">
         <v>1388</v>
       </c>
-      <c r="I389" s="5" t="s">
+      <c r="I389" s="19" t="s">
         <v>1393</v>
       </c>
-      <c r="K389" s="5">
+      <c r="K389" s="19">
         <v>-31</v>
       </c>
-      <c r="L389" s="5">
-        <v>0</v>
-      </c>
-      <c r="M389" s="5">
-        <v>0</v>
-      </c>
-      <c r="N389" s="5" t="s">
+      <c r="L389" s="19">
+        <v>0</v>
+      </c>
+      <c r="M389" s="19">
+        <v>0</v>
+      </c>
+      <c r="N389" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O389" s="5">
+      <c r="O389" s="19">
         <v>4800</v>
       </c>
-      <c r="P389" s="5" t="s">
+      <c r="P389" s="19" t="s">
         <v>1404</v>
       </c>
-      <c r="Q389" s="10" t="s">
+      <c r="Q389" s="40" t="s">
         <v>1412</v>
       </c>
-      <c r="V389" s="5" t="s">
+      <c r="V389" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W389" s="5">
+      <c r="W389" s="19">
         <v>9999999</v>
       </c>
-      <c r="X389" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y389" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z389" s="5">
+      <c r="X389" s="77">
+        <v>1605571200</v>
+      </c>
+      <c r="Y389" s="77">
+        <v>1606147199</v>
+      </c>
+      <c r="Z389" s="19">
         <v>45</v>
       </c>
-      <c r="AG389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK389" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="5">
+      <c r="AG389" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH389" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK389" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="19">
         <v>389</v>
       </c>
-      <c r="B390" s="5">
+      <c r="B390" s="19">
         <v>10306</v>
       </c>
-      <c r="F390" s="5">
-        <v>1</v>
-      </c>
-      <c r="G390" s="5" t="s">
+      <c r="F390" s="19">
+        <v>1</v>
+      </c>
+      <c r="G390" s="19" t="s">
         <v>1384</v>
       </c>
-      <c r="H390" s="5" t="s">
+      <c r="H390" s="19" t="s">
         <v>1388</v>
       </c>
-      <c r="I390" s="5" t="s">
+      <c r="I390" s="19" t="s">
         <v>1394</v>
       </c>
-      <c r="K390" s="5">
+      <c r="K390" s="19">
         <v>-31</v>
       </c>
-      <c r="L390" s="5">
-        <v>0</v>
-      </c>
-      <c r="M390" s="5">
-        <v>0</v>
-      </c>
-      <c r="N390" s="5" t="s">
+      <c r="L390" s="19">
+        <v>0</v>
+      </c>
+      <c r="M390" s="19">
+        <v>0</v>
+      </c>
+      <c r="N390" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O390" s="5">
+      <c r="O390" s="19">
         <v>9800</v>
       </c>
-      <c r="P390" s="5" t="s">
+      <c r="P390" s="19" t="s">
         <v>1405</v>
       </c>
-      <c r="Q390" s="10" t="s">
+      <c r="Q390" s="40" t="s">
         <v>1413</v>
       </c>
-      <c r="V390" s="5" t="s">
+      <c r="V390" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W390" s="5">
+      <c r="W390" s="19">
         <v>9999999</v>
       </c>
-      <c r="X390" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y390" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z390" s="5">
+      <c r="X390" s="77">
+        <v>1605571200</v>
+      </c>
+      <c r="Y390" s="77">
+        <v>1606147199</v>
+      </c>
+      <c r="Z390" s="19">
         <v>45</v>
       </c>
-      <c r="AG390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK390" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="5">
+      <c r="AG390" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH390" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK390" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="19">
         <v>390</v>
       </c>
-      <c r="B391" s="5">
+      <c r="B391" s="19">
         <v>10307</v>
       </c>
-      <c r="F391" s="5">
-        <v>1</v>
-      </c>
-      <c r="G391" s="5" t="s">
+      <c r="F391" s="19">
+        <v>1</v>
+      </c>
+      <c r="G391" s="19" t="s">
         <v>1385</v>
       </c>
-      <c r="H391" s="5" t="s">
+      <c r="H391" s="19" t="s">
         <v>1388</v>
       </c>
-      <c r="I391" s="5" t="s">
+      <c r="I391" s="19" t="s">
         <v>1395</v>
       </c>
-      <c r="K391" s="5">
+      <c r="K391" s="19">
         <v>-31</v>
       </c>
-      <c r="L391" s="5">
-        <v>0</v>
-      </c>
-      <c r="M391" s="5">
-        <v>0</v>
-      </c>
-      <c r="N391" s="5" t="s">
+      <c r="L391" s="19">
+        <v>0</v>
+      </c>
+      <c r="M391" s="19">
+        <v>0</v>
+      </c>
+      <c r="N391" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O391" s="5">
+      <c r="O391" s="19">
         <v>19800</v>
       </c>
-      <c r="P391" s="5" t="s">
+      <c r="P391" s="19" t="s">
         <v>1406</v>
       </c>
-      <c r="Q391" s="10" t="s">
+      <c r="Q391" s="40" t="s">
         <v>1414</v>
       </c>
-      <c r="V391" s="5" t="s">
+      <c r="V391" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W391" s="5">
+      <c r="W391" s="19">
         <v>9999999</v>
       </c>
-      <c r="X391" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y391" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z391" s="5">
+      <c r="X391" s="77">
+        <v>1605571200</v>
+      </c>
+      <c r="Y391" s="77">
+        <v>1606147199</v>
+      </c>
+      <c r="Z391" s="19">
         <v>45</v>
       </c>
-      <c r="AG391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK391" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="5">
+      <c r="AG391" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH391" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK391" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="19">
         <v>391</v>
       </c>
-      <c r="B392" s="5">
+      <c r="B392" s="19">
         <v>10308</v>
       </c>
-      <c r="F392" s="5">
-        <v>1</v>
-      </c>
-      <c r="G392" s="5" t="s">
+      <c r="F392" s="19">
+        <v>1</v>
+      </c>
+      <c r="G392" s="19" t="s">
         <v>1383</v>
       </c>
-      <c r="H392" s="5" t="s">
+      <c r="H392" s="19" t="s">
         <v>1389</v>
       </c>
-      <c r="I392" s="5" t="s">
+      <c r="I392" s="19" t="s">
         <v>1396</v>
       </c>
-      <c r="K392" s="5">
+      <c r="K392" s="19">
         <v>-31</v>
       </c>
-      <c r="L392" s="5">
-        <v>0</v>
-      </c>
-      <c r="M392" s="5">
-        <v>0</v>
-      </c>
-      <c r="N392" s="5" t="s">
+      <c r="L392" s="19">
+        <v>0</v>
+      </c>
+      <c r="M392" s="19">
+        <v>0</v>
+      </c>
+      <c r="N392" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O392" s="5">
+      <c r="O392" s="19">
         <v>9800</v>
       </c>
-      <c r="P392" s="5" t="s">
+      <c r="P392" s="19" t="s">
         <v>1401</v>
       </c>
-      <c r="Q392" s="10" t="s">
+      <c r="Q392" s="40" t="s">
         <v>1415</v>
       </c>
-      <c r="V392" s="5" t="s">
+      <c r="V392" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W392" s="5">
+      <c r="W392" s="19">
         <v>9999999</v>
       </c>
-      <c r="X392" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y392" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z392" s="5">
+      <c r="X392" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y392" s="61">
+        <v>1606147199</v>
+      </c>
+      <c r="Z392" s="19">
         <v>46</v>
       </c>
-      <c r="AG392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK392" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="5">
+      <c r="AG392" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH392" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK392" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="19">
         <v>392</v>
       </c>
-      <c r="B393" s="5">
+      <c r="B393" s="19">
         <v>10309</v>
       </c>
-      <c r="F393" s="5">
-        <v>1</v>
-      </c>
-      <c r="G393" s="5" t="s">
+      <c r="F393" s="19">
+        <v>1</v>
+      </c>
+      <c r="G393" s="19" t="s">
         <v>1384</v>
       </c>
-      <c r="H393" s="5" t="s">
+      <c r="H393" s="19" t="s">
         <v>1389</v>
       </c>
-      <c r="I393" s="5" t="s">
+      <c r="I393" s="19" t="s">
         <v>1397</v>
       </c>
-      <c r="K393" s="5">
+      <c r="K393" s="19">
         <v>-31</v>
       </c>
-      <c r="L393" s="5">
-        <v>0</v>
-      </c>
-      <c r="M393" s="5">
-        <v>0</v>
-      </c>
-      <c r="N393" s="5" t="s">
+      <c r="L393" s="19">
+        <v>0</v>
+      </c>
+      <c r="M393" s="19">
+        <v>0</v>
+      </c>
+      <c r="N393" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O393" s="5">
+      <c r="O393" s="19">
         <v>19800</v>
       </c>
-      <c r="P393" s="5" t="s">
+      <c r="P393" s="19" t="s">
         <v>1407</v>
       </c>
-      <c r="Q393" s="10" t="s">
+      <c r="Q393" s="40" t="s">
         <v>1417</v>
       </c>
-      <c r="V393" s="5" t="s">
+      <c r="V393" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W393" s="5">
+      <c r="W393" s="19">
         <v>9999999</v>
       </c>
-      <c r="X393" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y393" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z393" s="5">
+      <c r="X393" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y393" s="61">
+        <v>1606147199</v>
+      </c>
+      <c r="Z393" s="19">
         <v>46</v>
       </c>
-      <c r="AG393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK393" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="5">
+      <c r="AG393" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH393" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK393" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="19">
         <v>393</v>
       </c>
-      <c r="B394" s="5">
+      <c r="B394" s="19">
         <v>10310</v>
       </c>
-      <c r="F394" s="5">
-        <v>1</v>
-      </c>
-      <c r="G394" s="5" t="s">
+      <c r="F394" s="19">
+        <v>1</v>
+      </c>
+      <c r="G394" s="19" t="s">
         <v>1385</v>
       </c>
-      <c r="H394" s="5" t="s">
+      <c r="H394" s="19" t="s">
         <v>1389</v>
       </c>
-      <c r="I394" s="5" t="s">
+      <c r="I394" s="19" t="s">
         <v>1398</v>
       </c>
-      <c r="K394" s="5">
+      <c r="K394" s="19">
         <v>-31</v>
       </c>
-      <c r="L394" s="5">
-        <v>0</v>
-      </c>
-      <c r="M394" s="5">
-        <v>0</v>
-      </c>
-      <c r="N394" s="5" t="s">
+      <c r="L394" s="19">
+        <v>0</v>
+      </c>
+      <c r="M394" s="19">
+        <v>0</v>
+      </c>
+      <c r="N394" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="O394" s="5">
+      <c r="O394" s="19">
         <v>49800</v>
       </c>
-      <c r="P394" s="5" t="s">
+      <c r="P394" s="19" t="s">
         <v>1408</v>
       </c>
-      <c r="Q394" s="10" t="s">
+      <c r="Q394" s="40" t="s">
         <v>1416</v>
       </c>
-      <c r="V394" s="5" t="s">
+      <c r="V394" s="19" t="s">
         <v>1419</v>
       </c>
-      <c r="W394" s="5">
+      <c r="W394" s="19">
         <v>9999999</v>
       </c>
-      <c r="X394" s="5">
-        <v>1602547200</v>
-      </c>
-      <c r="Y394" s="5">
-        <v>1603123199</v>
-      </c>
-      <c r="Z394" s="5">
+      <c r="X394" s="61">
+        <v>1605571200</v>
+      </c>
+      <c r="Y394" s="61">
+        <v>1606147199</v>
+      </c>
+      <c r="Z394" s="19">
         <v>46</v>
       </c>
-      <c r="AG394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK394" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="5">
+      <c r="AG394" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH394" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK394" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="19">
         <v>1</v>
       </c>
     </row>
@@ -37258,6 +37879,2760 @@
         <v>1</v>
       </c>
       <c r="AL433" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>433</v>
+      </c>
+      <c r="B434" s="5">
+        <v>10350</v>
+      </c>
+      <c r="F434" s="5">
+        <v>0</v>
+      </c>
+      <c r="G434" s="5" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H434" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I434" s="5" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K434" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L434" s="5">
+        <v>0</v>
+      </c>
+      <c r="M434" s="5">
+        <v>0</v>
+      </c>
+      <c r="N434" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O434" s="5">
+        <v>1800</v>
+      </c>
+      <c r="P434" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="Q434" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="V434" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W434" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X434" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y434" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG434" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH434" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK434" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL434" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>434</v>
+      </c>
+      <c r="B435" s="5">
+        <v>10351</v>
+      </c>
+      <c r="F435" s="5">
+        <v>0</v>
+      </c>
+      <c r="G435" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H435" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I435" s="5" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K435" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L435" s="5">
+        <v>0</v>
+      </c>
+      <c r="M435" s="5">
+        <v>0</v>
+      </c>
+      <c r="N435" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O435" s="5">
+        <v>4800</v>
+      </c>
+      <c r="P435" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="Q435" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="V435" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W435" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X435" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y435" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG435" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH435" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK435" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL435" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>435</v>
+      </c>
+      <c r="B436" s="5">
+        <v>10352</v>
+      </c>
+      <c r="F436" s="5">
+        <v>0</v>
+      </c>
+      <c r="G436" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="H436" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I436" s="5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K436" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L436" s="5">
+        <v>0</v>
+      </c>
+      <c r="M436" s="5">
+        <v>0</v>
+      </c>
+      <c r="N436" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O436" s="5">
+        <v>9800</v>
+      </c>
+      <c r="P436" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="Q436" s="10" t="s">
+        <v>1596</v>
+      </c>
+      <c r="V436" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W436" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X436" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y436" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG436" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH436" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK436" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL436" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>436</v>
+      </c>
+      <c r="B437" s="5">
+        <v>10353</v>
+      </c>
+      <c r="F437" s="5">
+        <v>0</v>
+      </c>
+      <c r="G437" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H437" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I437" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K437" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L437" s="5">
+        <v>0</v>
+      </c>
+      <c r="M437" s="5">
+        <v>0</v>
+      </c>
+      <c r="N437" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O437" s="5">
+        <v>19800</v>
+      </c>
+      <c r="P437" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="Q437" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="V437" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W437" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X437" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y437" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG437" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH437" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK437" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL437" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>437</v>
+      </c>
+      <c r="B438" s="5">
+        <v>10354</v>
+      </c>
+      <c r="F438" s="5">
+        <v>0</v>
+      </c>
+      <c r="G438" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H438" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I438" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K438" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L438" s="5">
+        <v>0</v>
+      </c>
+      <c r="M438" s="5">
+        <v>0</v>
+      </c>
+      <c r="N438" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O438" s="5">
+        <v>29800</v>
+      </c>
+      <c r="P438" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="Q438" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="V438" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W438" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X438" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y438" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG438" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH438" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK438" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL438" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>438</v>
+      </c>
+      <c r="B439" s="5">
+        <v>10355</v>
+      </c>
+      <c r="F439" s="5">
+        <v>0</v>
+      </c>
+      <c r="G439" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H439" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I439" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K439" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L439" s="5">
+        <v>0</v>
+      </c>
+      <c r="M439" s="5">
+        <v>0</v>
+      </c>
+      <c r="N439" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O439" s="5">
+        <v>49800</v>
+      </c>
+      <c r="P439" s="5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="Q439" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="V439" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W439" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X439" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y439" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG439" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH439" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK439" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL439" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>439</v>
+      </c>
+      <c r="B440" s="5">
+        <v>10356</v>
+      </c>
+      <c r="F440" s="5">
+        <v>0</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H440" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I440" s="5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="K440" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L440" s="5">
+        <v>0</v>
+      </c>
+      <c r="M440" s="5">
+        <v>0</v>
+      </c>
+      <c r="N440" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="O440" s="5">
+        <v>99800</v>
+      </c>
+      <c r="P440" s="5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="Q440" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="V440" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="W440" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X440" s="5">
+        <v>1604359800</v>
+      </c>
+      <c r="Y440" s="5">
+        <v>1604937599</v>
+      </c>
+      <c r="AG440" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH440" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK440" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL440" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>440</v>
+      </c>
+      <c r="B441" s="5">
+        <v>10357</v>
+      </c>
+      <c r="F441" s="5">
+        <v>0</v>
+      </c>
+      <c r="G441" s="5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I441" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K441" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L441" s="5">
+        <v>0</v>
+      </c>
+      <c r="M441" s="5">
+        <v>0</v>
+      </c>
+      <c r="N441" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O441" s="5">
+        <v>49800</v>
+      </c>
+      <c r="P441" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q441" s="10" t="s">
+        <v>1605</v>
+      </c>
+      <c r="V441" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="W441" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X441" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y441" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG441" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH441" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK441" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL441" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>441</v>
+      </c>
+      <c r="B442" s="5">
+        <v>10358</v>
+      </c>
+      <c r="F442" s="5">
+        <v>0</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I442" s="5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K442" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L442" s="5">
+        <v>0</v>
+      </c>
+      <c r="M442" s="5">
+        <v>0</v>
+      </c>
+      <c r="N442" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O442" s="5">
+        <v>19800</v>
+      </c>
+      <c r="P442" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q442" s="10" t="s">
+        <v>1609</v>
+      </c>
+      <c r="V442" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="W442" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X442" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y442" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG442" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH442" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK442" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL442" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>442</v>
+      </c>
+      <c r="B443" s="5">
+        <v>10359</v>
+      </c>
+      <c r="F443" s="5">
+        <v>0</v>
+      </c>
+      <c r="G443" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I443" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="K443" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L443" s="5">
+        <v>0</v>
+      </c>
+      <c r="M443" s="5">
+        <v>0</v>
+      </c>
+      <c r="N443" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O443" s="5">
+        <v>9800</v>
+      </c>
+      <c r="P443" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q443" s="10" t="s">
+        <v>1612</v>
+      </c>
+      <c r="V443" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="W443" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X443" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y443" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG443" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH443" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK443" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL443" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>443</v>
+      </c>
+      <c r="B444" s="5">
+        <v>10360</v>
+      </c>
+      <c r="F444" s="5">
+        <v>0</v>
+      </c>
+      <c r="G444" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I444" s="5" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K444" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L444" s="5">
+        <v>0</v>
+      </c>
+      <c r="M444" s="5">
+        <v>0</v>
+      </c>
+      <c r="N444" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O444" s="5">
+        <v>4800</v>
+      </c>
+      <c r="P444" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q444" s="10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="V444" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="W444" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X444" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y444" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG444" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH444" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK444" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL444" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>444</v>
+      </c>
+      <c r="B445" s="5">
+        <v>10361</v>
+      </c>
+      <c r="F445" s="5">
+        <v>0</v>
+      </c>
+      <c r="G445" s="5" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I445" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K445" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L445" s="5">
+        <v>0</v>
+      </c>
+      <c r="M445" s="5">
+        <v>0</v>
+      </c>
+      <c r="N445" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O445" s="5">
+        <v>2000</v>
+      </c>
+      <c r="P445" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q445" s="10" t="s">
+        <v>1618</v>
+      </c>
+      <c r="V445" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="W445" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X445" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y445" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG445" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH445" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK445" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL445" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>445</v>
+      </c>
+      <c r="B446" s="5">
+        <v>10362</v>
+      </c>
+      <c r="F446" s="5">
+        <v>0</v>
+      </c>
+      <c r="G446" s="5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I446" s="5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K446" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L446" s="5">
+        <v>0</v>
+      </c>
+      <c r="M446" s="5">
+        <v>0</v>
+      </c>
+      <c r="N446" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O446" s="5">
+        <v>600</v>
+      </c>
+      <c r="P446" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q446" s="10" t="s">
+        <v>1435</v>
+      </c>
+      <c r="V446" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="W446" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X446" s="5">
+        <v>1604966400</v>
+      </c>
+      <c r="Y446" s="5">
+        <v>1605542399</v>
+      </c>
+      <c r="AG446" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH446" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK446" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL446" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="69">
+        <v>446</v>
+      </c>
+      <c r="B447" s="69">
+        <v>10363</v>
+      </c>
+      <c r="F447" s="69">
+        <v>1</v>
+      </c>
+      <c r="G447" s="69" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H447" s="69" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I447" s="69" t="s">
+        <v>1623</v>
+      </c>
+      <c r="K447" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L447" s="69">
+        <v>0</v>
+      </c>
+      <c r="M447" s="69">
+        <v>0</v>
+      </c>
+      <c r="N447" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O447" s="69">
+        <v>800</v>
+      </c>
+      <c r="P447" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q447" s="70" t="s">
+        <v>1624</v>
+      </c>
+      <c r="V447" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="W447" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X447" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y447" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z447" s="69">
+        <v>52</v>
+      </c>
+      <c r="AG447" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH447" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK447" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL447" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="69">
+        <v>447</v>
+      </c>
+      <c r="B448" s="69">
+        <v>10364</v>
+      </c>
+      <c r="F448" s="69">
+        <v>1</v>
+      </c>
+      <c r="G448" s="69" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H448" s="69" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I448" s="69" t="s">
+        <v>1627</v>
+      </c>
+      <c r="K448" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L448" s="69">
+        <v>0</v>
+      </c>
+      <c r="M448" s="69">
+        <v>0</v>
+      </c>
+      <c r="N448" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O448" s="69">
+        <v>800</v>
+      </c>
+      <c r="P448" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q448" s="70" t="s">
+        <v>1628</v>
+      </c>
+      <c r="V448" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="W448" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X448" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y448" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="AG448" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH448" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK448" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL448" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="69">
+        <v>448</v>
+      </c>
+      <c r="B449" s="69">
+        <v>10365</v>
+      </c>
+      <c r="F449" s="69">
+        <v>1</v>
+      </c>
+      <c r="G449" s="69" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H449" s="69" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I449" s="69" t="s">
+        <v>1631</v>
+      </c>
+      <c r="K449" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L449" s="69">
+        <v>0</v>
+      </c>
+      <c r="M449" s="69">
+        <v>0</v>
+      </c>
+      <c r="N449" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O449" s="69">
+        <v>800</v>
+      </c>
+      <c r="P449" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q449" s="70" t="s">
+        <v>1632</v>
+      </c>
+      <c r="V449" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W449" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X449" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y449" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z449" s="69">
+        <v>53</v>
+      </c>
+      <c r="AG449" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH449" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK449" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL449" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="71">
+        <v>449</v>
+      </c>
+      <c r="B450" s="71">
+        <v>10366</v>
+      </c>
+      <c r="F450" s="71">
+        <v>1</v>
+      </c>
+      <c r="G450" s="71" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H450" s="71" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I450" s="71" t="s">
+        <v>1635</v>
+      </c>
+      <c r="K450" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L450" s="71">
+        <v>0</v>
+      </c>
+      <c r="M450" s="71">
+        <v>0</v>
+      </c>
+      <c r="N450" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O450" s="71">
+        <v>3800</v>
+      </c>
+      <c r="P450" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q450" s="72" t="s">
+        <v>1636</v>
+      </c>
+      <c r="V450" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W450" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X450" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y450" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="Z450" s="71">
+        <v>54</v>
+      </c>
+      <c r="AG450" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH450" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK450" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="71">
+        <v>450</v>
+      </c>
+      <c r="B451" s="71">
+        <v>10367</v>
+      </c>
+      <c r="F451" s="71">
+        <v>1</v>
+      </c>
+      <c r="G451" s="71" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H451" s="71" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I451" s="71" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K451" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L451" s="71">
+        <v>0</v>
+      </c>
+      <c r="M451" s="71">
+        <v>0</v>
+      </c>
+      <c r="N451" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O451" s="71">
+        <v>3800</v>
+      </c>
+      <c r="P451" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q451" s="72" t="s">
+        <v>1640</v>
+      </c>
+      <c r="V451" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W451" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X451" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y451" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="AG451" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH451" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK451" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:38" s="71" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="71">
+        <v>451</v>
+      </c>
+      <c r="B452" s="71">
+        <v>10368</v>
+      </c>
+      <c r="F452" s="71">
+        <v>1</v>
+      </c>
+      <c r="G452" s="71" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H452" s="71" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I452" s="71" t="s">
+        <v>1643</v>
+      </c>
+      <c r="K452" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L452" s="71">
+        <v>0</v>
+      </c>
+      <c r="M452" s="71">
+        <v>0</v>
+      </c>
+      <c r="N452" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O452" s="71">
+        <v>3800</v>
+      </c>
+      <c r="P452" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q452" s="72" t="s">
+        <v>1644</v>
+      </c>
+      <c r="V452" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W452" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X452" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y452" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="Z452" s="71">
+        <v>55</v>
+      </c>
+      <c r="AG452" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH452" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK452" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="69">
+        <v>452</v>
+      </c>
+      <c r="B453" s="69">
+        <v>10369</v>
+      </c>
+      <c r="F453" s="69">
+        <v>1</v>
+      </c>
+      <c r="G453" s="69" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H453" s="69" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I453" s="69" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K453" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L453" s="69">
+        <v>0</v>
+      </c>
+      <c r="M453" s="69">
+        <v>0</v>
+      </c>
+      <c r="N453" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O453" s="69">
+        <v>9800</v>
+      </c>
+      <c r="P453" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q453" s="70" t="s">
+        <v>1648</v>
+      </c>
+      <c r="V453" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W453" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X453" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y453" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z453" s="69">
+        <v>56</v>
+      </c>
+      <c r="AG453" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH453" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK453" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL453" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="69">
+        <v>453</v>
+      </c>
+      <c r="B454" s="69">
+        <v>10370</v>
+      </c>
+      <c r="F454" s="69">
+        <v>1</v>
+      </c>
+      <c r="G454" s="69" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H454" s="69" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I454" s="69" t="s">
+        <v>1651</v>
+      </c>
+      <c r="K454" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L454" s="69">
+        <v>0</v>
+      </c>
+      <c r="M454" s="69">
+        <v>0</v>
+      </c>
+      <c r="N454" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O454" s="69">
+        <v>9800</v>
+      </c>
+      <c r="P454" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q454" s="70" t="s">
+        <v>1652</v>
+      </c>
+      <c r="V454" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W454" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X454" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y454" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="AG454" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH454" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK454" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL454" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="69">
+        <v>454</v>
+      </c>
+      <c r="B455" s="69">
+        <v>10371</v>
+      </c>
+      <c r="F455" s="69">
+        <v>1</v>
+      </c>
+      <c r="G455" s="69" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H455" s="69" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I455" s="69" t="s">
+        <v>1655</v>
+      </c>
+      <c r="K455" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L455" s="69">
+        <v>0</v>
+      </c>
+      <c r="M455" s="69">
+        <v>0</v>
+      </c>
+      <c r="N455" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O455" s="69">
+        <v>9800</v>
+      </c>
+      <c r="P455" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q455" s="70" t="s">
+        <v>1656</v>
+      </c>
+      <c r="V455" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W455" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X455" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y455" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z455" s="69">
+        <v>57</v>
+      </c>
+      <c r="AG455" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH455" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK455" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL455" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="71">
+        <v>455</v>
+      </c>
+      <c r="B456" s="71">
+        <v>10372</v>
+      </c>
+      <c r="F456" s="71">
+        <v>1</v>
+      </c>
+      <c r="G456" s="71" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H456" s="71" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I456" s="71" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K456" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L456" s="71">
+        <v>0</v>
+      </c>
+      <c r="M456" s="71">
+        <v>0</v>
+      </c>
+      <c r="N456" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O456" s="71">
+        <v>19800</v>
+      </c>
+      <c r="P456" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q456" s="72" t="s">
+        <v>1660</v>
+      </c>
+      <c r="V456" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W456" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X456" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y456" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="Z456" s="71">
+        <v>58</v>
+      </c>
+      <c r="AG456" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH456" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK456" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="71">
+        <v>456</v>
+      </c>
+      <c r="B457" s="71">
+        <v>10373</v>
+      </c>
+      <c r="F457" s="71">
+        <v>1</v>
+      </c>
+      <c r="G457" s="71" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H457" s="71" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I457" s="71" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K457" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L457" s="71">
+        <v>0</v>
+      </c>
+      <c r="M457" s="71">
+        <v>0</v>
+      </c>
+      <c r="N457" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O457" s="71">
+        <v>19800</v>
+      </c>
+      <c r="P457" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q457" s="72" t="s">
+        <v>1664</v>
+      </c>
+      <c r="V457" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W457" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X457" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y457" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="AG457" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH457" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK457" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="71">
+        <v>457</v>
+      </c>
+      <c r="B458" s="71">
+        <v>10374</v>
+      </c>
+      <c r="F458" s="71">
+        <v>1</v>
+      </c>
+      <c r="G458" s="71" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H458" s="71" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I458" s="71" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K458" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L458" s="71">
+        <v>0</v>
+      </c>
+      <c r="M458" s="71">
+        <v>0</v>
+      </c>
+      <c r="N458" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O458" s="71">
+        <v>19800</v>
+      </c>
+      <c r="P458" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q458" s="72" t="s">
+        <v>1668</v>
+      </c>
+      <c r="V458" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W458" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X458" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y458" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="Z458" s="71">
+        <v>59</v>
+      </c>
+      <c r="AG458" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH458" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK458" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="69">
+        <v>458</v>
+      </c>
+      <c r="B459" s="69">
+        <v>10375</v>
+      </c>
+      <c r="F459" s="69">
+        <v>1</v>
+      </c>
+      <c r="G459" s="69" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H459" s="69" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I459" s="69" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K459" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L459" s="69">
+        <v>0</v>
+      </c>
+      <c r="M459" s="69">
+        <v>0</v>
+      </c>
+      <c r="N459" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O459" s="69">
+        <v>49800</v>
+      </c>
+      <c r="P459" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q459" s="70" t="s">
+        <v>1672</v>
+      </c>
+      <c r="V459" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W459" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X459" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y459" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z459" s="69">
+        <v>60</v>
+      </c>
+      <c r="AG459" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH459" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK459" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL459" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="69">
+        <v>459</v>
+      </c>
+      <c r="B460" s="69">
+        <v>10376</v>
+      </c>
+      <c r="F460" s="69">
+        <v>1</v>
+      </c>
+      <c r="G460" s="69" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H460" s="69" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I460" s="69" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K460" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L460" s="69">
+        <v>0</v>
+      </c>
+      <c r="M460" s="69">
+        <v>0</v>
+      </c>
+      <c r="N460" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O460" s="69">
+        <v>49800</v>
+      </c>
+      <c r="P460" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q460" s="70" t="s">
+        <v>1676</v>
+      </c>
+      <c r="V460" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W460" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X460" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y460" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="AG460" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH460" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK460" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL460" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="69">
+        <v>460</v>
+      </c>
+      <c r="B461" s="69">
+        <v>10377</v>
+      </c>
+      <c r="F461" s="69">
+        <v>1</v>
+      </c>
+      <c r="G461" s="69" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H461" s="69" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I461" s="69" t="s">
+        <v>1679</v>
+      </c>
+      <c r="K461" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L461" s="69">
+        <v>0</v>
+      </c>
+      <c r="M461" s="69">
+        <v>0</v>
+      </c>
+      <c r="N461" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O461" s="69">
+        <v>49800</v>
+      </c>
+      <c r="P461" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q461" s="70" t="s">
+        <v>1680</v>
+      </c>
+      <c r="V461" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W461" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X461" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y461" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z461" s="69">
+        <v>61</v>
+      </c>
+      <c r="AG461" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH461" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK461" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL461" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="71">
+        <v>461</v>
+      </c>
+      <c r="B462" s="71">
+        <v>10378</v>
+      </c>
+      <c r="F462" s="71">
+        <v>1</v>
+      </c>
+      <c r="G462" s="71" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H462" s="71" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I462" s="71" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K462" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L462" s="71">
+        <v>0</v>
+      </c>
+      <c r="M462" s="71">
+        <v>0</v>
+      </c>
+      <c r="N462" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O462" s="71">
+        <v>99800</v>
+      </c>
+      <c r="P462" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q462" s="72" t="s">
+        <v>1684</v>
+      </c>
+      <c r="V462" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W462" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X462" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y462" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="Z462" s="71">
+        <v>62</v>
+      </c>
+      <c r="AG462" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH462" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK462" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="71">
+        <v>462</v>
+      </c>
+      <c r="B463" s="71">
+        <v>10379</v>
+      </c>
+      <c r="F463" s="71">
+        <v>1</v>
+      </c>
+      <c r="G463" s="71" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H463" s="71" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I463" s="71" t="s">
+        <v>1687</v>
+      </c>
+      <c r="K463" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L463" s="71">
+        <v>0</v>
+      </c>
+      <c r="M463" s="71">
+        <v>0</v>
+      </c>
+      <c r="N463" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O463" s="71">
+        <v>99800</v>
+      </c>
+      <c r="P463" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q463" s="72" t="s">
+        <v>1688</v>
+      </c>
+      <c r="V463" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W463" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X463" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y463" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="AG463" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH463" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK463" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:38" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="71">
+        <v>463</v>
+      </c>
+      <c r="B464" s="71">
+        <v>10380</v>
+      </c>
+      <c r="F464" s="71">
+        <v>1</v>
+      </c>
+      <c r="G464" s="71" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H464" s="71" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I464" s="71" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K464" s="71">
+        <v>-31</v>
+      </c>
+      <c r="L464" s="71">
+        <v>0</v>
+      </c>
+      <c r="M464" s="71">
+        <v>0</v>
+      </c>
+      <c r="N464" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="O464" s="71">
+        <v>99800</v>
+      </c>
+      <c r="P464" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q464" s="72" t="s">
+        <v>1692</v>
+      </c>
+      <c r="V464" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W464" s="71">
+        <v>9999999</v>
+      </c>
+      <c r="X464" s="71">
+        <v>1605571200</v>
+      </c>
+      <c r="Y464" s="71">
+        <v>2552233600</v>
+      </c>
+      <c r="Z464" s="71">
+        <v>63</v>
+      </c>
+      <c r="AG464" s="71">
+        <v>1</v>
+      </c>
+      <c r="AH464" s="71">
+        <v>1</v>
+      </c>
+      <c r="AK464" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="69">
+        <v>464</v>
+      </c>
+      <c r="B465" s="69">
+        <v>10381</v>
+      </c>
+      <c r="F465" s="69">
+        <v>1</v>
+      </c>
+      <c r="G465" s="69" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H465" s="69" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I465" s="69" t="s">
+        <v>1695</v>
+      </c>
+      <c r="K465" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L465" s="69">
+        <v>0</v>
+      </c>
+      <c r="M465" s="69">
+        <v>0</v>
+      </c>
+      <c r="N465" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O465" s="69">
+        <v>249800</v>
+      </c>
+      <c r="P465" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q465" s="70" t="s">
+        <v>1696</v>
+      </c>
+      <c r="V465" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W465" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X465" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y465" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z465" s="69">
+        <v>64</v>
+      </c>
+      <c r="AG465" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH465" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK465" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL465" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="69">
+        <v>465</v>
+      </c>
+      <c r="B466" s="69">
+        <v>10382</v>
+      </c>
+      <c r="F466" s="69">
+        <v>1</v>
+      </c>
+      <c r="G466" s="69" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H466" s="69" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I466" s="69" t="s">
+        <v>1699</v>
+      </c>
+      <c r="K466" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L466" s="69">
+        <v>0</v>
+      </c>
+      <c r="M466" s="69">
+        <v>0</v>
+      </c>
+      <c r="N466" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O466" s="69">
+        <v>249800</v>
+      </c>
+      <c r="P466" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q466" s="70" t="s">
+        <v>1700</v>
+      </c>
+      <c r="V466" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W466" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X466" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y466" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="AG466" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH466" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK466" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL466" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:38" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="69">
+        <v>466</v>
+      </c>
+      <c r="B467" s="69">
+        <v>10383</v>
+      </c>
+      <c r="F467" s="69">
+        <v>1</v>
+      </c>
+      <c r="G467" s="69" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H467" s="69" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I467" s="69" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K467" s="69">
+        <v>-31</v>
+      </c>
+      <c r="L467" s="69">
+        <v>0</v>
+      </c>
+      <c r="M467" s="69">
+        <v>0</v>
+      </c>
+      <c r="N467" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="O467" s="69">
+        <v>249800</v>
+      </c>
+      <c r="P467" s="69" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q467" s="70" t="s">
+        <v>1704</v>
+      </c>
+      <c r="V467" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="W467" s="69">
+        <v>9999999</v>
+      </c>
+      <c r="X467" s="69">
+        <v>1605571200</v>
+      </c>
+      <c r="Y467" s="69">
+        <v>2552233600</v>
+      </c>
+      <c r="Z467" s="69">
+        <v>65</v>
+      </c>
+      <c r="AG467" s="69">
+        <v>1</v>
+      </c>
+      <c r="AH467" s="69">
+        <v>1</v>
+      </c>
+      <c r="AK467" s="69">
+        <v>1</v>
+      </c>
+      <c r="AL467" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="73">
+        <v>467</v>
+      </c>
+      <c r="B468" s="73">
+        <v>10384</v>
+      </c>
+      <c r="F468" s="73">
+        <v>1</v>
+      </c>
+      <c r="G468" s="73" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H468" s="73" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I468" s="73" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K468" s="73">
+        <v>-31</v>
+      </c>
+      <c r="L468" s="73">
+        <v>0</v>
+      </c>
+      <c r="M468" s="73">
+        <v>0</v>
+      </c>
+      <c r="N468" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="O468" s="73">
+        <v>600</v>
+      </c>
+      <c r="P468" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q468" s="74" t="s">
+        <v>1118</v>
+      </c>
+      <c r="V468" s="73" t="s">
+        <v>1707</v>
+      </c>
+      <c r="W468" s="73">
+        <v>9999999</v>
+      </c>
+      <c r="X468" s="73">
+        <v>1605571200</v>
+      </c>
+      <c r="Y468" s="73">
+        <v>2552233600</v>
+      </c>
+      <c r="AG468" s="73">
+        <v>1</v>
+      </c>
+      <c r="AH468" s="73">
+        <v>1</v>
+      </c>
+      <c r="AK468" s="73">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="73">
+        <v>468</v>
+      </c>
+      <c r="B469" s="73">
+        <v>10385</v>
+      </c>
+      <c r="F469" s="73">
+        <v>1</v>
+      </c>
+      <c r="G469" s="73" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H469" s="73" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I469" s="73" t="s">
+        <v>1709</v>
+      </c>
+      <c r="K469" s="73">
+        <v>-31</v>
+      </c>
+      <c r="L469" s="73">
+        <v>0</v>
+      </c>
+      <c r="M469" s="73">
+        <v>0</v>
+      </c>
+      <c r="N469" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="O469" s="73">
+        <v>3000</v>
+      </c>
+      <c r="P469" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q469" s="74" t="s">
+        <v>1710</v>
+      </c>
+      <c r="V469" s="73" t="s">
+        <v>1707</v>
+      </c>
+      <c r="W469" s="73">
+        <v>9999999</v>
+      </c>
+      <c r="X469" s="73">
+        <v>1605571200</v>
+      </c>
+      <c r="Y469" s="73">
+        <v>2552233600</v>
+      </c>
+      <c r="AG469" s="73">
+        <v>1</v>
+      </c>
+      <c r="AH469" s="73">
+        <v>1</v>
+      </c>
+      <c r="AK469" s="73">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="73">
+        <v>469</v>
+      </c>
+      <c r="B470" s="73">
+        <v>10386</v>
+      </c>
+      <c r="F470" s="73">
+        <v>1</v>
+      </c>
+      <c r="G470" s="73" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H470" s="73" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I470" s="73" t="s">
+        <v>1340</v>
+      </c>
+      <c r="K470" s="73">
+        <v>-31</v>
+      </c>
+      <c r="L470" s="73">
+        <v>0</v>
+      </c>
+      <c r="M470" s="73">
+        <v>0</v>
+      </c>
+      <c r="N470" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="O470" s="73">
+        <v>6800</v>
+      </c>
+      <c r="P470" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q470" s="74" t="s">
+        <v>857</v>
+      </c>
+      <c r="V470" s="73" t="s">
+        <v>1707</v>
+      </c>
+      <c r="W470" s="73">
+        <v>9999999</v>
+      </c>
+      <c r="X470" s="73">
+        <v>1605571200</v>
+      </c>
+      <c r="Y470" s="73">
+        <v>2552233600</v>
+      </c>
+      <c r="AG470" s="73">
+        <v>1</v>
+      </c>
+      <c r="AH470" s="73">
+        <v>1</v>
+      </c>
+      <c r="AK470" s="73">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="73">
+        <v>470</v>
+      </c>
+      <c r="B471" s="73">
+        <v>10387</v>
+      </c>
+      <c r="F471" s="73">
+        <v>1</v>
+      </c>
+      <c r="G471" s="73" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H471" s="73" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I471" s="73" t="s">
+        <v>1713</v>
+      </c>
+      <c r="K471" s="73">
+        <v>-31</v>
+      </c>
+      <c r="L471" s="73">
+        <v>0</v>
+      </c>
+      <c r="M471" s="73">
+        <v>0</v>
+      </c>
+      <c r="N471" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="O471" s="73">
+        <v>9800</v>
+      </c>
+      <c r="P471" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q471" s="74" t="s">
+        <v>1714</v>
+      </c>
+      <c r="V471" s="73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="W471" s="73">
+        <v>9999999</v>
+      </c>
+      <c r="X471" s="73">
+        <v>1605571200</v>
+      </c>
+      <c r="Y471" s="73">
+        <v>2552233600</v>
+      </c>
+      <c r="AG471" s="73">
+        <v>1</v>
+      </c>
+      <c r="AH471" s="73">
+        <v>1</v>
+      </c>
+      <c r="AK471" s="73">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="73">
+        <v>471</v>
+      </c>
+      <c r="B472" s="73">
+        <v>10388</v>
+      </c>
+      <c r="F472" s="73">
+        <v>1</v>
+      </c>
+      <c r="G472" s="73" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H472" s="73" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I472" s="73" t="s">
+        <v>1717</v>
+      </c>
+      <c r="K472" s="73">
+        <v>-31</v>
+      </c>
+      <c r="L472" s="73">
+        <v>0</v>
+      </c>
+      <c r="M472" s="73">
+        <v>0</v>
+      </c>
+      <c r="N472" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="O472" s="73">
+        <v>19800</v>
+      </c>
+      <c r="P472" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q472" s="74" t="s">
+        <v>858</v>
+      </c>
+      <c r="V472" s="73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="W472" s="73">
+        <v>9999999</v>
+      </c>
+      <c r="X472" s="73">
+        <v>1605571200</v>
+      </c>
+      <c r="Y472" s="73">
+        <v>2552233600</v>
+      </c>
+      <c r="AG472" s="73">
+        <v>1</v>
+      </c>
+      <c r="AH472" s="73">
+        <v>1</v>
+      </c>
+      <c r="AK472" s="73">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:38" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="73">
+        <v>472</v>
+      </c>
+      <c r="B473" s="73">
+        <v>10389</v>
+      </c>
+      <c r="F473" s="73">
+        <v>1</v>
+      </c>
+      <c r="G473" s="73" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H473" s="73" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I473" s="73" t="s">
+        <v>1719</v>
+      </c>
+      <c r="K473" s="73">
+        <v>-31</v>
+      </c>
+      <c r="L473" s="73">
+        <v>0</v>
+      </c>
+      <c r="M473" s="73">
+        <v>0</v>
+      </c>
+      <c r="N473" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="O473" s="73">
+        <v>49800</v>
+      </c>
+      <c r="P473" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q473" s="74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="V473" s="73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="W473" s="73">
+        <v>9999999</v>
+      </c>
+      <c r="X473" s="73">
+        <v>1605571200</v>
+      </c>
+      <c r="Y473" s="73">
+        <v>2552233600</v>
+      </c>
+      <c r="AG473" s="73">
+        <v>1</v>
+      </c>
+      <c r="AH473" s="73">
+        <v>1</v>
+      </c>
+      <c r="AK473" s="73">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:38" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="69">
+        <v>473</v>
+      </c>
+      <c r="B474" s="69">
+        <v>10390</v>
+      </c>
+      <c r="F474" s="75">
+        <v>1</v>
+      </c>
+      <c r="G474" s="75" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H474" s="75" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I474" s="75" t="s">
+        <v>1722</v>
+      </c>
+      <c r="K474" s="75">
+        <v>-31</v>
+      </c>
+      <c r="L474" s="75">
+        <v>0</v>
+      </c>
+      <c r="M474" s="75">
+        <v>0</v>
+      </c>
+      <c r="N474" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="O474" s="75">
+        <v>99800</v>
+      </c>
+      <c r="P474" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q474" s="76" t="s">
+        <v>1723</v>
+      </c>
+      <c r="V474" s="73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="W474" s="75">
+        <v>9999999</v>
+      </c>
+      <c r="X474" s="75">
+        <v>1605571200</v>
+      </c>
+      <c r="Y474" s="75">
+        <v>2552233600</v>
+      </c>
+      <c r="AG474" s="75">
+        <v>1</v>
+      </c>
+      <c r="AH474" s="75">
+        <v>1</v>
+      </c>
+      <c r="AK474" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:38" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="69">
+        <v>474</v>
+      </c>
+      <c r="B475" s="69">
+        <v>10391</v>
+      </c>
+      <c r="F475" s="75">
+        <v>1</v>
+      </c>
+      <c r="G475" s="75" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H475" s="75" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I475" s="75" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K475" s="75">
+        <v>-31</v>
+      </c>
+      <c r="L475" s="75">
+        <v>0</v>
+      </c>
+      <c r="M475" s="75">
+        <v>0</v>
+      </c>
+      <c r="N475" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="O475" s="75">
+        <v>249800</v>
+      </c>
+      <c r="P475" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q475" s="76" t="s">
+        <v>1726</v>
+      </c>
+      <c r="V475" s="73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="W475" s="75">
+        <v>9999999</v>
+      </c>
+      <c r="X475" s="75">
+        <v>1605571200</v>
+      </c>
+      <c r="Y475" s="75">
+        <v>2552233600</v>
+      </c>
+      <c r="AG475" s="75">
+        <v>1</v>
+      </c>
+      <c r="AH475" s="75">
+        <v>1</v>
+      </c>
+      <c r="AK475" s="75">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="75">
         <v>1</v>
       </c>
     </row>
@@ -37271,10 +40646,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38028,6 +41403,202 @@
       </c>
       <c r="D52" s="65">
         <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="78">
+        <v>52</v>
+      </c>
+      <c r="B53" s="79" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C53" s="78">
+        <v>1</v>
+      </c>
+      <c r="D53" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="78">
+        <v>53</v>
+      </c>
+      <c r="B54" s="79" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C54" s="78">
+        <v>1</v>
+      </c>
+      <c r="D54" s="78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="78">
+        <v>54</v>
+      </c>
+      <c r="B55" s="79" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C55" s="78">
+        <v>1</v>
+      </c>
+      <c r="D55" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="78">
+        <v>55</v>
+      </c>
+      <c r="B56" s="79" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C56" s="78">
+        <v>1</v>
+      </c>
+      <c r="D56" s="78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="78">
+        <v>56</v>
+      </c>
+      <c r="B57" s="79" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C57" s="78">
+        <v>1</v>
+      </c>
+      <c r="D57" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="78">
+        <v>57</v>
+      </c>
+      <c r="B58" s="79" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C58" s="78">
+        <v>1</v>
+      </c>
+      <c r="D58" s="78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="78">
+        <v>58</v>
+      </c>
+      <c r="B59" s="79" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C59" s="78">
+        <v>1</v>
+      </c>
+      <c r="D59" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="78">
+        <v>59</v>
+      </c>
+      <c r="B60" s="79" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C60" s="78">
+        <v>1</v>
+      </c>
+      <c r="D60" s="78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="78">
+        <v>60</v>
+      </c>
+      <c r="B61" s="79" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C61" s="78">
+        <v>1</v>
+      </c>
+      <c r="D61" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="78">
+        <v>61</v>
+      </c>
+      <c r="B62" s="79" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C62" s="78">
+        <v>1</v>
+      </c>
+      <c r="D62" s="78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="78">
+        <v>62</v>
+      </c>
+      <c r="B63" s="79" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C63" s="78">
+        <v>1</v>
+      </c>
+      <c r="D63" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="78">
+        <v>63</v>
+      </c>
+      <c r="B64" s="79" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C64" s="78">
+        <v>1</v>
+      </c>
+      <c r="D64" s="78">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="78">
+        <v>64</v>
+      </c>
+      <c r="B65" s="79" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C65" s="78">
+        <v>1</v>
+      </c>
+      <c r="D65" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="78">
+        <v>65</v>
+      </c>
+      <c r="B66" s="79" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C66" s="78">
+        <v>1</v>
+      </c>
+      <c r="D66" s="78">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
